--- a/shared/dmn-rules/tax_calculation.dmn.xlsx
+++ b/shared/dmn-rules/tax_calculation.dmn.xlsx
@@ -769,7 +769,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>"Export"</t>
@@ -810,7 +814,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>"Import"</t>
@@ -851,7 +859,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>"Domestic"</t>
@@ -892,7 +904,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>-</t>
